--- a/templates/report4.xlsx
+++ b/templates/report4.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\foreigners_backend\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7C3262-5E35-4F20-8DE8-965755C33A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="7875"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="уровень 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
-  <si>
-    <t>Уровень, соответствующий цели получения разрешения на работу или патента</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>История России</t>
   </si>
@@ -69,7 +72,37 @@
     <t>дан верный ответ на 9 заданий</t>
   </si>
   <si>
-    <t>Диапазон дат:  10.12.2024 ‒ 10.02.2025</t>
+    <t>Задание КИМ, вызывающее наибольшие затруднения у иностранных граждан при сдаче экзамена ‒ в каждом блоке*:</t>
+  </si>
+  <si>
+    <t>Северо-Кавказская государственная академия</t>
+  </si>
+  <si>
+    <t>{{totalStudents}}</t>
+  </si>
+  <si>
+    <t>{{examLevel}}</t>
+  </si>
+  <si>
+    <t>{{dates}}</t>
+  </si>
+  <si>
+    <t>{{RL1}}</t>
+  </si>
+  <si>
+    <t>{{RH1}}</t>
+  </si>
+  <si>
+    <t>{{RLAW1}}</t>
+  </si>
+  <si>
+    <t>{{RLHQ}}</t>
+  </si>
+  <si>
+    <t>{{RHHQ}}</t>
+  </si>
+  <si>
+    <t>{{RLAWHQ}}</t>
   </si>
   <si>
     <r>
@@ -80,7 +113,6 @@
         <b/>
         <u/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -91,7 +123,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -108,7 +139,6 @@
         <b/>
         <u/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -119,7 +149,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -129,16 +158,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t>прохождения экзамена с указанным результатом</t>
     </r>
-  </si>
-  <si>
-    <t>Задание КИМ, вызывающее наибольшие затруднения у иностранных граждан при сдаче экзамена ‒ в каждом блоке*:</t>
   </si>
   <si>
     <r>
@@ -148,7 +173,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -157,14 +181,71 @@
     </r>
   </si>
   <si>
-    <t>Северо-Кавказская государственная академия</t>
+    <t>{{RL2}}</t>
+  </si>
+  <si>
+    <t>{{RL3}}</t>
+  </si>
+  <si>
+    <t>{{RL4}}</t>
+  </si>
+  <si>
+    <t>{{RL5}}</t>
+  </si>
+  <si>
+    <t>{{RL6}}</t>
+  </si>
+  <si>
+    <t>{{RL7}}</t>
+  </si>
+  <si>
+    <t>{{RL8}}</t>
+  </si>
+  <si>
+    <t>{{RL9}}</t>
+  </si>
+  <si>
+    <t>{{RL10}}</t>
+  </si>
+  <si>
+    <t>{{RH2}}</t>
+  </si>
+  <si>
+    <t>{{RH3}}</t>
+  </si>
+  <si>
+    <t>{{RH4}}</t>
+  </si>
+  <si>
+    <t>{{RH5}}</t>
+  </si>
+  <si>
+    <t>{{RH6}}</t>
+  </si>
+  <si>
+    <t>{{RLAW2}}</t>
+  </si>
+  <si>
+    <t>{{RLAW3}}</t>
+  </si>
+  <si>
+    <t>{{RLAW4}}</t>
+  </si>
+  <si>
+    <t>{{RLAW5}}</t>
+  </si>
+  <si>
+    <t>{{RLAW6}}</t>
+  </si>
+  <si>
+    <t>{{RLAW7}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,16 +262,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -199,27 +278,20 @@
       <b/>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -231,10 +303,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -247,18 +319,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -271,7 +334,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -284,14 +349,18 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -305,35 +374,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -342,9 +387,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -356,8 +405,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -366,67 +432,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -435,10 +447,12 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -448,82 +462,28 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -532,94 +492,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,313 +855,521 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Y14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9:Y9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="18.28515625" style="2" customWidth="1"/>
-    <col min="3" max="25" width="10.140625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="25" width="10.140625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="12"/>
+    </row>
+    <row r="8" spans="1:25" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="N9" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="2:25">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
     </row>
-    <row r="4" spans="2:25">
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
     </row>
-    <row r="5" spans="2:25">
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="12">
-        <v>135</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+    <row r="12" spans="1:25" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="15"/>
     </row>
-    <row r="6" spans="2:25" ht="15.75" thickBot="1"/>
-    <row r="7" spans="2:25" ht="30" customHeight="1" thickBot="1">
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" s="21"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="23"/>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
     </row>
-    <row r="8" spans="2:25" ht="69" customHeight="1">
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="S8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y8" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" ht="104.25" thickBot="1">
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="13">
-        <v>9</v>
-      </c>
-      <c r="D9" s="14">
-        <v>10</v>
-      </c>
-      <c r="E9" s="14">
-        <v>11</v>
-      </c>
-      <c r="F9" s="14">
-        <v>26</v>
-      </c>
-      <c r="G9" s="14">
-        <v>39</v>
-      </c>
-      <c r="H9" s="14">
-        <v>11</v>
-      </c>
-      <c r="I9" s="14">
-        <v>9</v>
-      </c>
-      <c r="J9" s="14">
-        <v>10</v>
-      </c>
-      <c r="K9" s="14">
-        <v>6</v>
-      </c>
-      <c r="L9" s="15">
-        <v>4</v>
-      </c>
-      <c r="M9" s="6">
-        <v>12</v>
-      </c>
-      <c r="N9" s="6">
-        <v>9</v>
-      </c>
-      <c r="O9" s="7">
-        <v>35</v>
-      </c>
-      <c r="P9" s="7">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>32</v>
-      </c>
-      <c r="R9" s="8">
-        <v>13</v>
-      </c>
-      <c r="S9" s="5">
-        <v>17</v>
-      </c>
-      <c r="T9" s="6">
-        <v>19</v>
-      </c>
-      <c r="U9" s="7">
-        <v>46</v>
-      </c>
-      <c r="V9" s="7">
-        <v>21</v>
-      </c>
-      <c r="W9" s="7">
-        <v>19</v>
-      </c>
-      <c r="X9" s="7">
-        <v>11</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" ht="127.5" customHeight="1">
-      <c r="B12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="27">
-        <v>5</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28">
-        <v>12</v>
-      </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="29">
-        <v>15</v>
-      </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-    </row>
-    <row r="14" spans="2:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="M7:R7"/>
     <mergeCell ref="S7:Y7"/>
     <mergeCell ref="C7:L7"/>
@@ -1207,11 +1377,6 @@
     <mergeCell ref="M12:R12"/>
     <mergeCell ref="S12:Y12"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Введите целое число" sqref="M9:Y9">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
